--- a/EP_Processamento/estrategia.xlsx
+++ b/EP_Processamento/estrategia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\GitHub\EPProcessamento\EP_Processamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E03A668-E9CC-4919-A9DC-4070718BCFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ADF1A9-2FD8-46A3-A34E-D059A0CA87E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>File</t>
   </si>
@@ -67,15 +67,9 @@
     <t>teste-02</t>
   </si>
   <si>
-    <t>teste-03</t>
-  </si>
-  <si>
     <t>teste-04</t>
   </si>
   <si>
-    <t>teste-05</t>
-  </si>
-  <si>
     <t>teste-06</t>
   </si>
   <si>
@@ -106,18 +100,12 @@
     <t>teste-15</t>
   </si>
   <si>
-    <t>teste-16</t>
-  </si>
-  <si>
     <t>teste-17</t>
   </si>
   <si>
     <t>teste-18</t>
   </si>
   <si>
-    <t>teste-19</t>
-  </si>
-  <si>
     <t>teste-20</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>teste-24</t>
   </si>
   <si>
-    <t>teste-25</t>
-  </si>
-  <si>
     <t>teste-26</t>
   </si>
   <si>
@@ -259,13 +244,7 @@
     <t>teste-70</t>
   </si>
   <si>
-    <t>teste-71</t>
-  </si>
-  <si>
     <t>teste-72</t>
-  </si>
-  <si>
-    <t>teste-73</t>
   </si>
   <si>
     <t>h =&lt; 5 exclui</t>
@@ -284,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,19 +290,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -371,20 +360,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +684,7 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -779,33 +773,33 @@
       <c r="I2">
         <v>247</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3">
-        <v>96</v>
-      </c>
-      <c r="M2" s="7">
-        <v>216</v>
+      <c r="L2" s="10">
+        <v>252</v>
+      </c>
+      <c r="M2" s="3">
+        <v>61</v>
       </c>
       <c r="N2" s="3">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="O2" s="6">
+        <v>30</v>
       </c>
       <c r="P2" s="3">
-        <v>276.5</v>
+        <v>228</v>
       </c>
       <c r="Q2" s="3">
-        <v>384</v>
+        <v>660</v>
       </c>
       <c r="R2" s="3">
-        <v>548</v>
+        <v>136</v>
       </c>
       <c r="S2" s="3">
-        <v>200</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -836,33 +830,33 @@
       <c r="I3">
         <v>247</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2">
-        <v>115</v>
-      </c>
-      <c r="M3" s="8">
-        <v>208</v>
-      </c>
-      <c r="N3" s="4">
-        <v>4</v>
-      </c>
-      <c r="O3" s="4">
-        <v>4</v>
-      </c>
-      <c r="P3" s="4">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>16</v>
-      </c>
-      <c r="R3" s="2">
-        <v>548</v>
-      </c>
-      <c r="S3" s="2">
-        <v>200</v>
+      <c r="L3" s="10">
+        <v>225</v>
+      </c>
+      <c r="M3" s="3">
+        <v>61</v>
+      </c>
+      <c r="N3" s="3">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3">
+        <v>172</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>483</v>
+      </c>
+      <c r="R3" s="3">
+        <v>136</v>
+      </c>
+      <c r="S3" s="3">
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -893,350 +887,272 @@
       <c r="I4">
         <v>137</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="2">
-        <v>108</v>
-      </c>
-      <c r="M4" s="8">
-        <v>187</v>
+      <c r="L4" s="4">
+        <v>203</v>
+      </c>
+      <c r="M4" s="2">
+        <v>63</v>
       </c>
       <c r="N4" s="4">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>8</v>
-      </c>
-      <c r="P4" s="4">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="O4" s="7">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
+        <v>106.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>336</v>
       </c>
       <c r="R4" s="2">
-        <v>548</v>
+        <v>136</v>
       </c>
       <c r="S4" s="2">
-        <v>200</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J5" s="6"/>
-      <c r="K5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7">
-        <v>252</v>
-      </c>
-      <c r="M5" s="3">
-        <v>61</v>
-      </c>
-      <c r="N5" s="3">
-        <v>22</v>
-      </c>
-      <c r="O5" s="3">
-        <v>30</v>
-      </c>
-      <c r="P5" s="3">
-        <v>228</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>660</v>
-      </c>
-      <c r="R5" s="3">
-        <v>136</v>
-      </c>
-      <c r="S5" s="3">
-        <v>474</v>
-      </c>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7">
-        <v>225</v>
+        <v>13</v>
+      </c>
+      <c r="L6" s="10">
+        <v>529</v>
       </c>
       <c r="M6" s="3">
-        <v>61</v>
-      </c>
-      <c r="N6" s="3">
-        <v>21</v>
+        <v>127</v>
+      </c>
+      <c r="N6" s="6">
+        <v>28</v>
       </c>
       <c r="O6" s="3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="P6" s="3">
-        <v>172</v>
+        <v>66.5</v>
       </c>
       <c r="Q6" s="3">
-        <v>483</v>
+        <v>168</v>
       </c>
       <c r="R6" s="3">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="S6" s="3">
-        <v>474</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="8">
-        <v>203</v>
-      </c>
-      <c r="M7" s="2">
-        <v>63</v>
-      </c>
-      <c r="N7" s="5">
-        <v>16</v>
-      </c>
-      <c r="O7" s="5">
-        <v>21</v>
-      </c>
-      <c r="P7" s="2">
-        <v>106.5</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>336</v>
-      </c>
-      <c r="R7" s="2">
-        <v>136</v>
-      </c>
-      <c r="S7" s="2">
-        <v>474</v>
+        <v>71</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="10">
+        <v>463</v>
+      </c>
+      <c r="M7" s="3">
+        <v>124</v>
+      </c>
+      <c r="N7" s="6">
+        <v>35</v>
+      </c>
+      <c r="O7" s="3">
+        <v>9</v>
+      </c>
+      <c r="P7" s="3">
+        <v>233.5</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>315</v>
+      </c>
+      <c r="R7" s="3">
+        <v>231</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="3">
-        <v>88</v>
-      </c>
-      <c r="M8" s="7">
-        <v>239</v>
-      </c>
-      <c r="N8" s="3">
-        <v>26</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="11">
+        <v>458</v>
+      </c>
+      <c r="M9" s="11">
+        <v>131</v>
+      </c>
+      <c r="N9" s="12">
+        <v>32</v>
+      </c>
+      <c r="O9" s="11">
+        <v>10</v>
+      </c>
+      <c r="P9" s="11">
+        <v>243</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>320</v>
+      </c>
+      <c r="R9" s="11">
+        <v>284</v>
+      </c>
+      <c r="S9" s="11">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="I10" s="15"/>
+      <c r="K10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11">
+        <v>390</v>
+      </c>
+      <c r="M10" s="11">
+        <v>130</v>
+      </c>
+      <c r="N10" s="12">
         <v>34</v>
       </c>
-      <c r="P8" s="3">
-        <v>432</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>884</v>
-      </c>
-      <c r="R8" s="3">
-        <v>616</v>
-      </c>
-      <c r="S8" s="3">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J9" s="9"/>
-      <c r="K9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="2">
-        <v>112</v>
-      </c>
-      <c r="M9" s="8">
-        <v>216</v>
-      </c>
-      <c r="N9" s="4">
-        <v>8</v>
-      </c>
-      <c r="O9" s="5">
-        <v>6</v>
-      </c>
-      <c r="P9" s="4">
+      <c r="O10" s="11">
+        <v>14</v>
+      </c>
+      <c r="P10" s="11">
+        <v>258.5</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>476</v>
+      </c>
+      <c r="R10" s="11">
+        <v>284</v>
+      </c>
+      <c r="S10" s="11">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="K11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="4">
-        <v>48</v>
-      </c>
-      <c r="R9" s="2">
-        <v>616</v>
-      </c>
-      <c r="S9" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J10" s="9"/>
-      <c r="K10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2">
-        <v>90</v>
-      </c>
-      <c r="M10" s="8">
-        <v>208</v>
-      </c>
-      <c r="N10" s="5">
-        <v>10</v>
-      </c>
-      <c r="O10" s="4">
-        <v>4</v>
-      </c>
-      <c r="P10" s="4">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>40</v>
-      </c>
-      <c r="R10" s="2">
-        <v>616</v>
-      </c>
-      <c r="S10" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J11" s="9"/>
-      <c r="K11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="2">
-        <v>100</v>
-      </c>
-      <c r="M11" s="8">
-        <v>206</v>
-      </c>
-      <c r="N11" s="4">
-        <v>4</v>
-      </c>
-      <c r="O11" s="5">
-        <v>7</v>
-      </c>
-      <c r="P11" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>28</v>
-      </c>
-      <c r="R11" s="2">
-        <v>616</v>
-      </c>
-      <c r="S11" s="2">
-        <v>206</v>
+      <c r="L11" s="13">
+        <v>385</v>
+      </c>
+      <c r="M11" s="13">
+        <v>77</v>
+      </c>
+      <c r="N11" s="14">
+        <v>27</v>
+      </c>
+      <c r="O11" s="13">
+        <v>19</v>
+      </c>
+      <c r="P11" s="13">
+        <v>244.5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>513</v>
+      </c>
+      <c r="R11" s="13">
+        <v>284</v>
+      </c>
+      <c r="S11" s="13">
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J12" s="9"/>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="8">
-        <v>810</v>
-      </c>
-      <c r="M12" s="2">
-        <v>56</v>
-      </c>
-      <c r="N12" s="4">
-        <v>8</v>
-      </c>
-      <c r="O12" s="5">
-        <v>17</v>
-      </c>
-      <c r="P12" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>136</v>
-      </c>
-      <c r="R12" s="2">
-        <v>231</v>
-      </c>
-      <c r="S12" s="2">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J13" s="9"/>
-      <c r="K13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="8">
-        <v>872</v>
-      </c>
-      <c r="M13" s="2">
-        <v>48</v>
-      </c>
-      <c r="N13" s="4">
-        <v>4</v>
-      </c>
-      <c r="O13" s="5">
-        <v>8</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="L12" s="2">
+        <v>454</v>
+      </c>
+      <c r="M12" s="13">
+        <v>76</v>
+      </c>
+      <c r="N12" s="14">
+        <v>23</v>
+      </c>
+      <c r="O12" s="13">
+        <v>19</v>
+      </c>
+      <c r="P12" s="13">
+        <v>197.5</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>437</v>
+      </c>
+      <c r="R12" s="13">
+        <v>284</v>
+      </c>
+      <c r="S12" s="13">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J14" s="5"/>
+      <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="4">
-        <v>32</v>
-      </c>
-      <c r="R13" s="2">
-        <v>231</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J14" s="9"/>
-      <c r="K14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="8">
-        <v>844</v>
-      </c>
-      <c r="M14" s="2">
-        <v>56</v>
-      </c>
-      <c r="N14" s="4">
-        <v>6</v>
-      </c>
-      <c r="O14" s="4">
-        <v>4</v>
-      </c>
-      <c r="P14" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>24</v>
+      <c r="L14" s="2">
+        <v>250</v>
+      </c>
+      <c r="M14" s="4">
+        <v>423</v>
+      </c>
+      <c r="N14" s="2">
+        <v>25</v>
+      </c>
+      <c r="O14" s="7">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2">
+        <v>467</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>900</v>
       </c>
       <c r="R14" s="2">
-        <v>231</v>
+        <v>1770</v>
       </c>
       <c r="S14" s="2">
-        <v>1132</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>118</v>
@@ -1262,38 +1178,38 @@
       <c r="I15">
         <v>258</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="3">
+        <v>241</v>
+      </c>
+      <c r="M15" s="10">
+        <v>751</v>
+      </c>
+      <c r="N15" s="3">
         <v>15</v>
       </c>
-      <c r="L15" s="7">
-        <v>529</v>
-      </c>
-      <c r="M15" s="3">
-        <v>127</v>
-      </c>
-      <c r="N15" s="3">
-        <v>28</v>
-      </c>
-      <c r="O15" s="3">
-        <v>6</v>
+      <c r="O15" s="6">
+        <v>27</v>
       </c>
       <c r="P15" s="3">
-        <v>66.5</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="3">
-        <v>168</v>
+        <v>405</v>
       </c>
       <c r="R15" s="3">
-        <v>231</v>
+        <v>1770</v>
       </c>
       <c r="S15" s="3">
-        <v>1132</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>117</v>
@@ -1319,248 +1235,180 @@
       <c r="I16">
         <v>258</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="8">
-        <v>824</v>
-      </c>
-      <c r="M16" s="2">
-        <v>76</v>
-      </c>
-      <c r="N16" s="4">
-        <v>4</v>
-      </c>
-      <c r="O16" s="5">
-        <v>8</v>
-      </c>
-      <c r="P16" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>32</v>
-      </c>
-      <c r="R16" s="2">
-        <v>231</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1132</v>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="3">
+        <v>243</v>
+      </c>
+      <c r="M16" s="10">
+        <v>849</v>
+      </c>
+      <c r="N16" s="3">
+        <v>16</v>
+      </c>
+      <c r="O16" s="6">
+        <v>55</v>
+      </c>
+      <c r="P16" s="3">
+        <v>207.5</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>880</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1770</v>
+      </c>
+      <c r="S16" s="3">
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J17" s="9"/>
-      <c r="K17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="7">
-        <v>463</v>
-      </c>
-      <c r="M17" s="3">
-        <v>124</v>
-      </c>
-      <c r="N17" s="3">
-        <v>35</v>
-      </c>
-      <c r="O17" s="3">
-        <v>9</v>
-      </c>
-      <c r="P17" s="3">
-        <v>233.5</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>315</v>
-      </c>
-      <c r="R17" s="3">
-        <v>231</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1132</v>
-      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J18" s="9"/>
-      <c r="K18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="8">
-        <v>816</v>
-      </c>
-      <c r="M18" s="2">
-        <v>63</v>
-      </c>
-      <c r="N18" s="4">
-        <v>5</v>
-      </c>
-      <c r="O18" s="5">
-        <v>8</v>
-      </c>
-      <c r="P18" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>40</v>
-      </c>
-      <c r="R18" s="2">
-        <v>231</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1132</v>
-      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J19" s="6"/>
-      <c r="K19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="2">
-        <v>208</v>
-      </c>
-      <c r="M19" s="8">
-        <v>434</v>
-      </c>
-      <c r="N19" s="4">
-        <v>5</v>
-      </c>
-      <c r="O19" s="4">
-        <v>4</v>
-      </c>
-      <c r="P19" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="J19" s="5"/>
+      <c r="K19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S19" s="2">
-        <v>532</v>
+      <c r="L19" s="3">
+        <v>187</v>
+      </c>
+      <c r="M19" s="10">
+        <v>482</v>
+      </c>
+      <c r="N19" s="3">
+        <v>20</v>
+      </c>
+      <c r="O19" s="6">
+        <v>60</v>
+      </c>
+      <c r="P19" s="3">
+        <v>939.5</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1278</v>
+      </c>
+      <c r="S19" s="3">
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L20" s="2">
-        <v>250</v>
-      </c>
-      <c r="M20" s="8">
-        <v>423</v>
+        <v>181</v>
+      </c>
+      <c r="M20" s="4">
+        <v>929</v>
       </c>
       <c r="N20" s="2">
-        <v>25</v>
-      </c>
-      <c r="O20" s="2">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="O20" s="7">
+        <v>49</v>
       </c>
       <c r="P20" s="2">
-        <v>467</v>
+        <v>456.5</v>
       </c>
       <c r="Q20" s="2">
-        <v>900</v>
+        <v>1372</v>
       </c>
       <c r="R20" s="2">
-        <v>1770</v>
+        <v>1278</v>
       </c>
       <c r="S20" s="2">
-        <v>532</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J21" s="6"/>
-      <c r="K21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="2">
-        <v>353</v>
-      </c>
-      <c r="M21" s="8">
-        <v>432</v>
-      </c>
-      <c r="N21" s="4">
-        <v>6</v>
-      </c>
-      <c r="O21" s="4">
-        <v>5</v>
-      </c>
-      <c r="P21" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>30</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S21" s="2">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J22" s="6"/>
-      <c r="K22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="2">
-        <v>200</v>
-      </c>
-      <c r="M22" s="8">
-        <v>439</v>
-      </c>
-      <c r="N22" s="4">
-        <v>4</v>
-      </c>
-      <c r="O22" s="2">
-        <v>7</v>
-      </c>
-      <c r="P22" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>28</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S22" s="2">
-        <v>532</v>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3">
+        <v>187</v>
+      </c>
+      <c r="M21" s="10">
+        <v>573</v>
+      </c>
+      <c r="N21" s="3">
+        <v>21</v>
+      </c>
+      <c r="O21" s="6">
+        <v>53</v>
+      </c>
+      <c r="P21" s="3">
+        <v>901</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1113</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1278</v>
+      </c>
+      <c r="S21" s="3">
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L23" s="3">
-        <v>241</v>
-      </c>
-      <c r="M23" s="7">
-        <v>751</v>
+        <v>66</v>
+      </c>
+      <c r="M23" s="10">
+        <v>235</v>
       </c>
       <c r="N23" s="3">
-        <v>15</v>
-      </c>
-      <c r="O23" s="3">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="O23" s="6">
+        <v>22</v>
       </c>
       <c r="P23" s="3">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="3">
-        <v>405</v>
+        <v>220</v>
       </c>
       <c r="R23" s="3">
-        <v>1770</v>
+        <v>408</v>
       </c>
       <c r="S23" s="3">
-        <v>532</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>94</v>
@@ -1586,458 +1434,68 @@
       <c r="I24">
         <v>215</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="2">
-        <v>279</v>
-      </c>
-      <c r="M24" s="8">
-        <v>757</v>
-      </c>
-      <c r="N24" s="4">
-        <v>5</v>
-      </c>
-      <c r="O24" s="2">
-        <v>15</v>
-      </c>
-      <c r="P24" s="4">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>75</v>
-      </c>
-      <c r="R24" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S24" s="2">
-        <v>532</v>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="3">
+        <v>64</v>
+      </c>
+      <c r="M24" s="10">
+        <v>187</v>
+      </c>
+      <c r="N24" s="3">
+        <v>11</v>
+      </c>
+      <c r="O24" s="6">
+        <v>24</v>
+      </c>
+      <c r="P24" s="3">
+        <v>161.5</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>264</v>
+      </c>
+      <c r="R24" s="3">
+        <v>408</v>
+      </c>
+      <c r="S24" s="3">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J25" s="6"/>
-      <c r="K25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="3">
-        <v>243</v>
-      </c>
-      <c r="M25" s="7">
-        <v>849</v>
-      </c>
-      <c r="N25" s="3">
-        <v>16</v>
-      </c>
-      <c r="O25" s="3">
-        <v>55</v>
-      </c>
-      <c r="P25" s="3">
-        <v>207.5</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>880</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1770</v>
-      </c>
-      <c r="S25" s="3">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J26" s="6"/>
-      <c r="K26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="2">
-        <v>424</v>
-      </c>
-      <c r="M26" s="8">
-        <v>1314</v>
-      </c>
-      <c r="N26" s="4">
-        <v>5</v>
-      </c>
-      <c r="O26" s="4">
-        <v>4</v>
-      </c>
-      <c r="P26" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>20</v>
-      </c>
-      <c r="R26" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S26" s="2">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J27" s="6"/>
-      <c r="K27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="2">
-        <v>413</v>
-      </c>
-      <c r="M27" s="8">
-        <v>1331</v>
-      </c>
-      <c r="N27" s="4">
-        <v>4</v>
-      </c>
-      <c r="O27" s="2">
-        <v>7</v>
-      </c>
-      <c r="P27" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>28</v>
-      </c>
-      <c r="R27" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S27" s="2">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J28" s="6"/>
-      <c r="K28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="2">
-        <v>397</v>
-      </c>
-      <c r="M28" s="8">
-        <v>1344</v>
-      </c>
-      <c r="N28" s="2">
-        <v>9</v>
-      </c>
-      <c r="O28" s="2">
-        <v>6</v>
-      </c>
-      <c r="P28" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>54</v>
-      </c>
-      <c r="R28" s="2">
-        <v>1770</v>
-      </c>
-      <c r="S28" s="2">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J29" s="6"/>
-      <c r="K29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="2">
-        <v>256</v>
-      </c>
-      <c r="M29" s="8">
-        <v>284</v>
-      </c>
-      <c r="N29" s="4">
-        <v>5</v>
-      </c>
-      <c r="O29" s="4">
-        <v>5</v>
-      </c>
-      <c r="P29" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>25</v>
-      </c>
-      <c r="R29" s="2">
-        <v>1278</v>
-      </c>
-      <c r="S29" s="2">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J30" s="6"/>
-      <c r="K30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="3">
-        <v>187</v>
-      </c>
-      <c r="M30" s="7">
-        <v>482</v>
-      </c>
-      <c r="N30" s="3">
-        <v>20</v>
-      </c>
-      <c r="O30" s="3">
+      <c r="J25" s="5"/>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2">
         <v>60</v>
       </c>
-      <c r="P30" s="3">
-        <v>939.5</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1278</v>
-      </c>
-      <c r="S30" s="3">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J31" s="6"/>
-      <c r="K31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="3">
-        <v>181</v>
-      </c>
-      <c r="M31" s="7">
-        <v>929</v>
-      </c>
-      <c r="N31" s="3">
-        <v>28</v>
-      </c>
-      <c r="O31" s="3">
-        <v>49</v>
-      </c>
-      <c r="P31" s="3">
-        <v>456.5</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1372</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1278</v>
-      </c>
-      <c r="S31" s="3">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J32" s="6"/>
-      <c r="K32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="2">
-        <v>187</v>
-      </c>
-      <c r="M32" s="8">
-        <v>573</v>
-      </c>
-      <c r="N32" s="2">
-        <v>21</v>
-      </c>
-      <c r="O32" s="2">
-        <v>53</v>
-      </c>
-      <c r="P32" s="2">
-        <v>901</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>1113</v>
-      </c>
-      <c r="R32" s="2">
-        <v>1278</v>
-      </c>
-      <c r="S32" s="2">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J33" s="6"/>
-      <c r="K33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="3">
-        <v>66</v>
-      </c>
-      <c r="M33" s="7">
-        <v>235</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="M25" s="4">
+        <v>146</v>
+      </c>
+      <c r="N25" s="2">
         <v>10</v>
       </c>
-      <c r="O33" s="3">
-        <v>22</v>
-      </c>
-      <c r="P33" s="3">
-        <v>137</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>220</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="O25" s="7">
+        <v>26</v>
+      </c>
+      <c r="P25" s="2">
+        <v>150.5</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>260</v>
+      </c>
+      <c r="R25" s="2">
         <v>408</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S25" s="2">
         <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J34" s="6"/>
-      <c r="K34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="3">
-        <v>64</v>
-      </c>
-      <c r="M34" s="7">
-        <v>187</v>
-      </c>
-      <c r="N34" s="3">
-        <v>11</v>
-      </c>
-      <c r="O34" s="3">
-        <v>24</v>
-      </c>
-      <c r="P34" s="3">
-        <v>161.5</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>264</v>
-      </c>
-      <c r="R34" s="3">
-        <v>408</v>
-      </c>
-      <c r="S34" s="3">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J35" s="6"/>
-      <c r="K35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="2">
-        <v>70</v>
-      </c>
-      <c r="M35" s="8">
-        <v>160</v>
-      </c>
-      <c r="N35" s="4">
-        <v>5</v>
-      </c>
-      <c r="O35" s="2">
-        <v>10</v>
-      </c>
-      <c r="P35" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>50</v>
-      </c>
-      <c r="R35" s="2">
-        <v>408</v>
-      </c>
-      <c r="S35" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J36" s="6"/>
-      <c r="K36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="2">
-        <v>60</v>
-      </c>
-      <c r="M36" s="8">
-        <v>146</v>
-      </c>
-      <c r="N36" s="2">
-        <v>10</v>
-      </c>
-      <c r="O36" s="2">
-        <v>26</v>
-      </c>
-      <c r="P36" s="2">
-        <v>150.5</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>260</v>
-      </c>
-      <c r="R36" s="2">
-        <v>408</v>
-      </c>
-      <c r="S36" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J37" s="10"/>
-      <c r="K37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="2">
-        <v>58</v>
-      </c>
-      <c r="M37" s="8">
-        <v>136</v>
-      </c>
-      <c r="N37" s="4">
-        <v>4</v>
-      </c>
-      <c r="O37" s="2">
-        <v>6</v>
-      </c>
-      <c r="P37" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>24</v>
-      </c>
-      <c r="R37" s="2">
-        <v>451</v>
-      </c>
-      <c r="S37" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J38" s="9"/>
-      <c r="K38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="3">
-        <v>60</v>
-      </c>
-      <c r="M38" s="7">
-        <v>175</v>
-      </c>
-      <c r="N38" s="3">
-        <v>9</v>
-      </c>
-      <c r="O38" s="3">
-        <v>23</v>
-      </c>
-      <c r="P38" s="3">
-        <v>121</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>207</v>
-      </c>
-      <c r="R38" s="3">
-        <v>451</v>
-      </c>
-      <c r="S38" s="3">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>107</v>
@@ -2064,37 +1522,10 @@
         <v>223</v>
       </c>
       <c r="J39" s="9"/>
-      <c r="K39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="2">
-        <v>68</v>
-      </c>
-      <c r="M39" s="8">
-        <v>147</v>
-      </c>
-      <c r="N39" s="4">
-        <v>4</v>
-      </c>
-      <c r="O39" s="2">
-        <v>14</v>
-      </c>
-      <c r="P39" s="4">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>56</v>
-      </c>
-      <c r="R39" s="2">
-        <v>451</v>
-      </c>
-      <c r="S39" s="2">
-        <v>145</v>
-      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40">
         <v>129</v>
@@ -2121,37 +1552,10 @@
         <v>437</v>
       </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="8">
-        <v>389</v>
-      </c>
-      <c r="M40" s="2">
-        <v>340</v>
-      </c>
-      <c r="N40" s="4">
-        <v>6</v>
-      </c>
-      <c r="O40" s="2">
-        <v>7</v>
-      </c>
-      <c r="P40" s="4">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>42</v>
-      </c>
-      <c r="R40" s="2">
-        <v>863</v>
-      </c>
-      <c r="S40" s="2">
-        <v>863</v>
-      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>146</v>
@@ -2178,364 +1582,142 @@
         <v>282</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="8">
-        <v>400</v>
-      </c>
-      <c r="M41" s="2">
-        <v>337</v>
-      </c>
-      <c r="N41" s="2">
-        <v>9</v>
-      </c>
-      <c r="O41" s="4">
-        <v>4</v>
-      </c>
-      <c r="P41" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>36</v>
-      </c>
-      <c r="R41" s="2">
-        <v>863</v>
-      </c>
-      <c r="S41" s="2">
-        <v>863</v>
-      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J42" s="9"/>
-      <c r="K42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="7">
-        <v>408</v>
-      </c>
-      <c r="M42" s="3">
-        <v>328</v>
-      </c>
-      <c r="N42" s="3">
-        <v>24</v>
-      </c>
-      <c r="O42" s="3">
-        <v>73</v>
-      </c>
-      <c r="P42" s="3">
-        <v>1421</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1752</v>
-      </c>
-      <c r="R42" s="3">
-        <v>863</v>
-      </c>
-      <c r="S42" s="3">
-        <v>863</v>
-      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J43" s="9"/>
-      <c r="K43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43" s="2">
-        <v>57</v>
-      </c>
-      <c r="M43" s="8">
-        <v>320</v>
-      </c>
-      <c r="N43" s="4">
-        <v>4</v>
-      </c>
-      <c r="O43" s="4">
-        <v>3</v>
-      </c>
-      <c r="P43" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>12</v>
-      </c>
-      <c r="R43" s="2">
-        <v>634</v>
-      </c>
-      <c r="S43" s="2">
-        <v>247</v>
-      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J44" s="9"/>
-      <c r="K44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44" s="2">
-        <v>58</v>
-      </c>
-      <c r="M44" s="8">
-        <v>345</v>
-      </c>
-      <c r="N44" s="4">
-        <v>5</v>
-      </c>
-      <c r="O44" s="4">
-        <v>4</v>
-      </c>
-      <c r="P44" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>20</v>
-      </c>
-      <c r="R44" s="2">
-        <v>634</v>
-      </c>
-      <c r="S44" s="2">
-        <v>247</v>
-      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J45" s="9"/>
-      <c r="K45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L45" s="2">
-        <v>58</v>
-      </c>
-      <c r="M45" s="8">
-        <v>336</v>
-      </c>
-      <c r="N45" s="4">
-        <v>8</v>
-      </c>
-      <c r="O45" s="4">
-        <v>4</v>
-      </c>
-      <c r="P45" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>32</v>
-      </c>
-      <c r="R45" s="2">
-        <v>634</v>
-      </c>
-      <c r="S45" s="2">
-        <v>247</v>
-      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J46" s="9"/>
-      <c r="K46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L46" s="2">
-        <v>61</v>
-      </c>
-      <c r="M46" s="8">
-        <v>505</v>
-      </c>
-      <c r="N46" s="2">
-        <v>9</v>
-      </c>
-      <c r="O46" s="4">
-        <v>3</v>
-      </c>
-      <c r="P46" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>27</v>
-      </c>
-      <c r="R46" s="2">
-        <v>634</v>
-      </c>
-      <c r="S46" s="2">
-        <v>247</v>
-      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J47" s="9"/>
-      <c r="K47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="3">
-        <v>129</v>
-      </c>
-      <c r="M47" s="7">
-        <v>375</v>
-      </c>
-      <c r="N47" s="3">
-        <v>15</v>
-      </c>
-      <c r="O47" s="3">
-        <v>19</v>
-      </c>
-      <c r="P47" s="3">
-        <v>183</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>285</v>
-      </c>
-      <c r="R47" s="3">
-        <v>634</v>
-      </c>
-      <c r="S47" s="3">
-        <v>247</v>
-      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L48" s="7">
-        <v>463</v>
-      </c>
-      <c r="M48" s="3">
-        <v>171</v>
-      </c>
-      <c r="N48" s="3">
-        <v>30</v>
-      </c>
-      <c r="O48" s="3">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3">
-        <v>172.5</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>240</v>
-      </c>
-      <c r="R48" s="3">
-        <v>361</v>
-      </c>
-      <c r="S48" s="3">
-        <v>817</v>
-      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L49" s="8">
-        <v>640</v>
-      </c>
-      <c r="M49" s="2">
-        <v>74</v>
-      </c>
-      <c r="N49" s="4">
-        <v>7</v>
-      </c>
-      <c r="O49" s="2">
-        <v>26</v>
-      </c>
-      <c r="P49" s="2">
-        <v>106</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>182</v>
-      </c>
-      <c r="R49" s="2">
-        <v>361</v>
-      </c>
-      <c r="S49" s="2">
-        <v>817</v>
-      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L50" s="8">
-        <v>624</v>
-      </c>
-      <c r="M50" s="2">
-        <v>73</v>
-      </c>
-      <c r="N50" s="4">
-        <v>7</v>
-      </c>
-      <c r="O50" s="2">
-        <v>6</v>
-      </c>
-      <c r="P50" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>42</v>
-      </c>
-      <c r="R50" s="2">
-        <v>361</v>
-      </c>
-      <c r="S50" s="2">
-        <v>817</v>
-      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J51" s="9"/>
-      <c r="K51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L51" s="2">
-        <v>392</v>
-      </c>
-      <c r="M51" s="8">
-        <v>448</v>
-      </c>
-      <c r="N51" s="2">
-        <v>4</v>
-      </c>
-      <c r="O51" s="2">
-        <v>9</v>
-      </c>
-      <c r="P51" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>36</v>
-      </c>
-      <c r="R51" s="2">
-        <v>566</v>
-      </c>
-      <c r="S51" s="2">
-        <v>780</v>
-      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="J52" s="9"/>
-      <c r="K52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L52" s="2">
-        <v>336</v>
-      </c>
-      <c r="M52" s="8">
-        <v>448</v>
-      </c>
-      <c r="N52" s="4">
-        <v>8</v>
-      </c>
-      <c r="O52" s="2">
-        <v>8</v>
-      </c>
-      <c r="P52" s="4">
-        <v>36.5</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>64</v>
-      </c>
-      <c r="R52" s="2">
-        <v>566</v>
-      </c>
-      <c r="S52" s="2">
-        <v>780</v>
-      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>75</v>
@@ -2562,37 +1744,19 @@
         <v>167</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L53" s="2">
-        <v>284</v>
-      </c>
-      <c r="M53" s="8">
-        <v>452</v>
-      </c>
-      <c r="N53" s="2">
-        <v>10</v>
-      </c>
-      <c r="O53" s="4">
-        <v>4</v>
-      </c>
-      <c r="P53" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>40</v>
-      </c>
-      <c r="R53" s="2">
-        <v>566</v>
-      </c>
-      <c r="S53" s="2">
-        <v>780</v>
-      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B54">
         <v>74</v>
@@ -2619,37 +1783,19 @@
         <v>167</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L54" s="2">
-        <v>272</v>
-      </c>
-      <c r="M54" s="8">
-        <v>452</v>
-      </c>
-      <c r="N54" s="2">
-        <v>10</v>
-      </c>
-      <c r="O54" s="4">
-        <v>4</v>
-      </c>
-      <c r="P54" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q54" s="4">
-        <v>40</v>
-      </c>
-      <c r="R54" s="2">
-        <v>566</v>
-      </c>
-      <c r="S54" s="2">
-        <v>780</v>
-      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>76</v>
@@ -2676,37 +1822,19 @@
         <v>175</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L55" s="7">
-        <v>454</v>
-      </c>
-      <c r="M55" s="3">
-        <v>224</v>
-      </c>
-      <c r="N55" s="3">
-        <v>57</v>
-      </c>
-      <c r="O55" s="3">
-        <v>28</v>
-      </c>
-      <c r="P55" s="3">
-        <v>1099.5</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>1596</v>
-      </c>
-      <c r="R55" s="3">
-        <v>566</v>
-      </c>
-      <c r="S55" s="3">
-        <v>780</v>
-      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>76</v>
@@ -2732,124 +1860,10 @@
       <c r="I56">
         <v>175</v>
       </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56">
-        <v>458</v>
-      </c>
-      <c r="L56">
-        <v>131</v>
-      </c>
-      <c r="M56">
-        <v>32</v>
-      </c>
-      <c r="N56">
-        <v>10</v>
-      </c>
-      <c r="O56">
-        <v>243</v>
-      </c>
-      <c r="P56">
-        <v>320</v>
-      </c>
-      <c r="Q56">
-        <v>284</v>
-      </c>
-      <c r="R56">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57">
-        <v>390</v>
-      </c>
-      <c r="L57">
-        <v>130</v>
-      </c>
-      <c r="M57">
-        <v>34</v>
-      </c>
-      <c r="N57">
-        <v>14</v>
-      </c>
-      <c r="O57">
-        <v>258.5</v>
-      </c>
-      <c r="P57">
-        <v>476</v>
-      </c>
-      <c r="Q57">
-        <v>284</v>
-      </c>
-      <c r="R57">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58">
-        <v>385</v>
-      </c>
-      <c r="L58">
-        <v>77</v>
-      </c>
-      <c r="M58">
-        <v>27</v>
-      </c>
-      <c r="N58">
-        <v>19</v>
-      </c>
-      <c r="O58">
-        <v>244.5</v>
-      </c>
-      <c r="P58">
-        <v>513</v>
-      </c>
-      <c r="Q58">
-        <v>284</v>
-      </c>
-      <c r="R58">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="J59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59">
-        <v>454</v>
-      </c>
-      <c r="L59">
-        <v>76</v>
-      </c>
-      <c r="M59">
-        <v>23</v>
-      </c>
-      <c r="N59">
-        <v>19</v>
-      </c>
-      <c r="O59">
-        <v>197.5</v>
-      </c>
-      <c r="P59">
-        <v>437</v>
-      </c>
-      <c r="Q59">
-        <v>284</v>
-      </c>
-      <c r="R59">
-        <v>945</v>
-      </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B60">
         <v>63</v>
@@ -2878,7 +1892,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>61</v>
@@ -2907,7 +1921,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>459</v>
@@ -2936,7 +1950,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B63">
         <v>396</v>
@@ -2965,7 +1979,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B64">
         <v>527</v>
@@ -2994,7 +2008,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>53</v>
@@ -3023,7 +2037,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B71">
         <v>316</v>
@@ -3052,7 +2066,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B72">
         <v>269</v>
@@ -3081,7 +2095,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B73">
         <v>292</v>
@@ -3110,7 +2124,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B74">
         <v>343</v>
@@ -3139,7 +2153,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B75">
         <v>374</v>
@@ -3168,7 +2182,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B76">
         <v>400</v>
@@ -3197,7 +2211,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B77">
         <v>366</v>
@@ -3226,7 +2240,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B78">
         <v>397</v>
@@ -3255,7 +2269,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B79">
         <v>364</v>
@@ -3284,7 +2298,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B80">
         <v>252</v>
@@ -3313,7 +2327,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B81">
         <v>274</v>
@@ -3342,7 +2356,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B82">
         <v>45</v>
@@ -3371,7 +2385,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B83">
         <v>44</v>
@@ -3400,7 +2414,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B84">
         <v>48</v>
@@ -3429,7 +2443,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B85">
         <v>265</v>
@@ -3458,7 +2472,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B86">
         <v>53</v>
@@ -3487,7 +2501,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B87">
         <v>45</v>
@@ -3516,7 +2530,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B88">
         <v>319</v>
@@ -3545,7 +2559,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B89">
         <v>45</v>
@@ -3574,7 +2588,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B90">
         <v>524</v>
@@ -3603,7 +2617,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B91">
         <v>385</v>
@@ -3632,7 +2646,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B92">
         <v>343</v>
@@ -3661,7 +2675,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B93">
         <v>408</v>
@@ -3690,7 +2704,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>446</v>
@@ -3719,7 +2733,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B95">
         <v>114</v>
@@ -3748,7 +2762,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <v>114</v>
@@ -3777,7 +2791,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B97">
         <v>406</v>
@@ -3806,7 +2820,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B98">
         <v>443</v>
@@ -3835,7 +2849,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B99">
         <v>557</v>
@@ -3864,7 +2878,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B100">
         <v>511</v>
@@ -3893,7 +2907,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B101">
         <v>552</v>
@@ -3922,7 +2936,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B102">
         <v>400</v>
@@ -3951,7 +2965,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B103">
         <v>70</v>
@@ -3980,7 +2994,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B104">
         <v>752</v>
@@ -4009,7 +3023,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B105">
         <v>85</v>
@@ -4038,7 +3052,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B106">
         <v>84</v>
@@ -4067,7 +3081,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B107">
         <v>75</v>
@@ -4096,7 +3110,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B108">
         <v>75</v>
@@ -4125,7 +3139,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B109">
         <v>408</v>
@@ -4154,7 +3168,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B110">
         <v>444</v>
@@ -4183,7 +3197,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B111">
         <v>124</v>
@@ -4212,7 +3226,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B112">
         <v>76</v>
@@ -4241,7 +3255,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B113">
         <v>76</v>
@@ -4270,7 +3284,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B114">
         <v>74</v>
@@ -4299,7 +3313,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B115">
         <v>116</v>
@@ -4328,7 +3342,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B116">
         <v>116</v>
@@ -4357,7 +3371,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B117">
         <v>81</v>
@@ -4386,7 +3400,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B118">
         <v>82</v>
@@ -4415,7 +3429,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B119">
         <v>109</v>
@@ -4444,7 +3458,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B120">
         <v>104</v>
@@ -4473,7 +3487,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B121">
         <v>511</v>
@@ -4502,7 +3516,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B122">
         <v>100</v>
@@ -4531,7 +3545,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B123">
         <v>528</v>
@@ -4560,7 +3574,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B124">
         <v>137</v>
@@ -4589,7 +3603,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B125">
         <v>489</v>
@@ -4618,7 +3632,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B126">
         <v>655</v>
@@ -4647,7 +3661,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B127">
         <v>377</v>
@@ -4676,7 +3690,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B131">
         <v>164</v>
